--- a/param/file/read_param.xlsx
+++ b/param/file/read_param.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\anaconda\Lib\site-packages\quant\param\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doufucheng\Anaconda3\Lib\site-packages\quant\param\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="load_param" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
   <si>
     <t>Barra_Data</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -314,10 +314,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>E:\</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>\New Portfolio Construction Programs\New Portfolio Construction Programs\OutputData\Alpha Factors ltt</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -442,12 +438,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Barra_Stock_Factor_Return</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_Data\1_barra_data\4_barra_stock_factor_return\</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>C:\Users\doufucheng\Desktop\Folder</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1110,36 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1429,24 +1448,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="85.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="34" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1477,16 +1496,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1497,16 +1516,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1517,14 +1536,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1535,50 +1554,52 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1586,19 +1607,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1606,19 +1627,19 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1626,19 +1647,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1646,19 +1667,19 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1666,57 +1687,55 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1724,111 +1743,113 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1836,19 +1857,17 @@
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1856,35 +1875,35 @@
         <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -1892,35 +1911,35 @@
         <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1928,73 +1947,75 @@
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -2002,59 +2023,57 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -2062,35 +2081,35 @@
         <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -2098,17 +2117,17 @@
         <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2116,53 +2135,53 @@
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -2170,33 +2189,15 @@
         <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/param/file/read_param.xlsx
+++ b/param/file/read_param.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doufucheng\Anaconda3\Lib\site-packages\quant\param\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\anaconda\Lib\site-packages\quant\param\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -438,7 +438,8 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\doufucheng\Desktop\Folder</t>
+    <t>E:\</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1085,30 +1086,30 @@
     <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1450,11 +1451,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -1465,7 +1466,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1544,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1562,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1717,7 +1718,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1735,7 +1736,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1753,7 +1754,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +1772,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1790,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +1868,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1885,7 +1886,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1903,7 +1904,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1922,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1940,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +1958,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1975,7 +1976,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2074,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -2091,7 +2092,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2110,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -2127,7 +2128,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2146,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
@@ -2163,7 +2164,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2182,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
